--- a/IPL/Sunrisers Hyderabad/Shreevats Goswami †.xlsx
+++ b/IPL/Sunrisers Hyderabad/Shreevats Goswami †.xlsx
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
